--- a/Preformance_Metrics.xlsx
+++ b/Preformance_Metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thorc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stuconestogacon-my.sharepoint.com/personal/gabeele2160_conestogac_on_ca/Documents/Conestoga-Term7/CSCN73060 - Project 6/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94B40CE-1D00-4AB2-8B45-E29C27C7CF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D94B40CE-1D00-4AB2-8B45-E29C27C7CF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{317D2D20-52F5-4E3A-B4C7-D64677D93325}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8820" yWindow="5295" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="File IO" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Number of Files</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Avg Memory in Use</t>
-  </si>
-  <si>
-    <t>Bytes per Second</t>
   </si>
   <si>
     <t>Space Complexity of Algorithms</t>
@@ -530,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A555C116-6B17-418C-8588-7F1FFB7B4505}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,14 +576,12 @@
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="L1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -597,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDD3578-9090-4CA7-9053-FF72E7BFC264}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -621,22 +616,22 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -667,28 +662,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19303EC1-69ED-41B3-930A-C55563E552B0}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -719,31 +714,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Preformance_Metrics.xlsx
+++ b/Preformance_Metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stuconestogacon-my.sharepoint.com/personal/gabeele2160_conestogac_on_ca/Documents/Conestoga-Term7/CSCN73060 - Project 6/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thorc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D94B40CE-1D00-4AB2-8B45-E29C27C7CF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{317D2D20-52F5-4E3A-B4C7-D64677D93325}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D5ED19-CCCD-42B6-BFC0-B542158C463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="5295" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="File IO" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Number of Files</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Avg Packet Size Recv</t>
+  </si>
+  <si>
+    <t>Number of Comparisons Made</t>
+  </si>
+  <si>
+    <t>Amount of Parsing Done</t>
   </si>
 </sst>
 </file>
@@ -527,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A555C116-6B17-418C-8588-7F1FFB7B4505}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,9 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDD3578-9090-4CA7-9053-FF72E7BFC264}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -641,10 +645,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF2A72C-A191-46D7-B695-43F00177657F}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,10 +661,11 @@
     <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -684,6 +689,12 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -695,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19303EC1-69ED-41B3-930A-C55563E552B0}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Preformance_Metrics.xlsx
+++ b/Preformance_Metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thorc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stuconestogacon-my.sharepoint.com/personal/gabeele2160_conestogac_on_ca/Documents/Conestoga-Term7/CSCN73060 - Project 6/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D5ED19-CCCD-42B6-BFC0-B542158C463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{65D5ED19-CCCD-42B6-BFC0-B542158C463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86128912-8295-446D-B22C-421A3A73CFBB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25380" yWindow="5340" windowWidth="20895" windowHeight="14610" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="File IO" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,28 @@
     <sheet name="Parsing" sheetId="3" r:id="rId4"/>
     <sheet name="Calculations" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Number of Files</t>
   </si>
@@ -40,27 +51,9 @@
     <t>Number of Bytes per File</t>
   </si>
   <si>
-    <t>Disk Utilization</t>
-  </si>
-  <si>
     <t>Data Retrieved per IO Call</t>
   </si>
   <si>
-    <t>Total Time for File IO</t>
-  </si>
-  <si>
-    <t>Avg Time of IO Read</t>
-  </si>
-  <si>
-    <t>Time taken to Send a Packet</t>
-  </si>
-  <si>
-    <t>Time taken to Receive a Packet</t>
-  </si>
-  <si>
-    <t>Total Packet Round-trip Time</t>
-  </si>
-  <si>
     <t>Packet Loss</t>
   </si>
   <si>
@@ -70,18 +63,6 @@
     <t>Number of Packets Received</t>
   </si>
   <si>
-    <t>Time taken to Send a Packet Client</t>
-  </si>
-  <si>
-    <t>Time taken to Receive a Packet Client</t>
-  </si>
-  <si>
-    <t>Total Packet Round-trip Time Client</t>
-  </si>
-  <si>
-    <t>Packet Integrity</t>
-  </si>
-  <si>
     <t>Total Memory Used</t>
   </si>
   <si>
@@ -97,45 +78,18 @@
     <t>Bytes of Memory Used</t>
   </si>
   <si>
-    <t>Bytes of Memory Received</t>
-  </si>
-  <si>
     <t>Memory Management Calls</t>
   </si>
   <si>
-    <t>Time per Memory Management Call</t>
-  </si>
-  <si>
     <t>Time to Parse a Packet</t>
   </si>
   <si>
     <t>Number of Packets Parsed</t>
   </si>
   <si>
-    <t>Largest Packet</t>
-  </si>
-  <si>
-    <t>Total Bytes Parsed</t>
-  </si>
-  <si>
-    <t>Avg Bytes per Packet</t>
-  </si>
-  <si>
-    <t>Number of Parsing Processes</t>
-  </si>
-  <si>
     <t>Number of String Comparisons</t>
   </si>
   <si>
-    <t>Number of Datatype Conversions</t>
-  </si>
-  <si>
-    <t>Algorithmic Efficiency of UpdateData</t>
-  </si>
-  <si>
-    <t>Algorithmic Efficiency of CalcAvg</t>
-  </si>
-  <si>
     <t>Number of Function Calls to UpdateData</t>
   </si>
   <si>
@@ -151,19 +105,91 @@
     <t>Number of CPUs Utilized</t>
   </si>
   <si>
-    <t>Max CPU utilization</t>
-  </si>
-  <si>
-    <t>Avg CPU Utilization</t>
-  </si>
-  <si>
-    <t>Avg Packet Size Recv</t>
-  </si>
-  <si>
-    <t>Number of Comparisons Made</t>
-  </si>
-  <si>
-    <t>Amount of Parsing Done</t>
+    <t>Avg Time of IO Read (S)</t>
+  </si>
+  <si>
+    <t>Total Time for File IO (S)</t>
+  </si>
+  <si>
+    <t>Longest Line Read (S)</t>
+  </si>
+  <si>
+    <t>Time Taken for GetSize() (S)</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>FileIO_2023-1-29-11-46-48</t>
+  </si>
+  <si>
+    <t>DataTransmission-Client_2023-1-29-11-46-48</t>
+  </si>
+  <si>
+    <t>Average Time taken to Send a Packet Client (S)</t>
+  </si>
+  <si>
+    <t>Average Time taken to Receive a Packet Client (S)</t>
+  </si>
+  <si>
+    <t>Time taken to Send a Packet Server (S)</t>
+  </si>
+  <si>
+    <t>Time taken to Receive a Packet Server (S)</t>
+  </si>
+  <si>
+    <t>Average Packet Round-trip Time Client (S)</t>
+  </si>
+  <si>
+    <t>Average Packet Round-trip Time (S)</t>
+  </si>
+  <si>
+    <t>Total Packet Byte Size Sent</t>
+  </si>
+  <si>
+    <t>Total Packet byte Size Recv</t>
+  </si>
+  <si>
+    <t>MemoryManagement-Server_2023-1-29-11-46-48</t>
+  </si>
+  <si>
+    <t>1 Mb</t>
+  </si>
+  <si>
+    <t>0.5 Mb</t>
+  </si>
+  <si>
+    <t>Average Time per Memory Management Call (S)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Number of Parsing Steps</t>
+  </si>
+  <si>
+    <t>Number of Datatype Conversions (Per Step)</t>
+  </si>
+  <si>
+    <t>Average Time To parse with Comparisons (S)</t>
+  </si>
+  <si>
+    <t>Calculation-Server_2023-1-29-12-6-11</t>
+  </si>
+  <si>
+    <t>Max CPU utilization (%)</t>
+  </si>
+  <si>
+    <t>Avg CPU Utilization (%)</t>
+  </si>
+  <si>
+    <t>Parsing-Server_2023-1-29-12-6-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithmic Efficiency of CalcAvg </t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
   </si>
 </sst>
 </file>
@@ -219,6 +245,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>401382</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7C7716-7024-326C-71C1-B70C440FEFBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15782925" y="190500"/>
+          <a:ext cx="9545382" cy="3315163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>10292</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFEAC36B-5480-F6DB-F36C-BCCE336FEF0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17602200" y="190500"/>
+          <a:ext cx="5496692" cy="3086531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,44 +608,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B19:B20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0019999999999999E-2</v>
+      </c>
+      <c r="D2">
+        <v>48804</v>
+      </c>
+      <c r="E2">
+        <f>48804/505</f>
+        <v>96.641584158415839</v>
+      </c>
+      <c r="F2">
+        <v>505</v>
+      </c>
+      <c r="G2">
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="H2">
+        <v>3.6962000000000002E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.6699999999999999E-4</v>
       </c>
     </row>
   </sheetData>
@@ -531,170 +693,251 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A555C116-6B17-418C-8588-7F1FFB7B4505}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C2">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="D2">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="E2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F2">
+        <v>3.5199999999999999E-4</v>
+      </c>
+      <c r="G2">
+        <v>4.2299999999999998E-4</v>
+      </c>
+      <c r="H2">
+        <v>8050</v>
+      </c>
+      <c r="I2">
+        <v>8050</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1030400</v>
+      </c>
+      <c r="L2">
+        <v>531300</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDD3578-9090-4CA7-9053-FF72E7BFC264}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>3521</v>
+      </c>
+      <c r="H2">
+        <v>3.0000000000000001E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF2A72C-A191-46D7-B695-43F00177657F}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>4025</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>18116</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.44E-4</v>
       </c>
     </row>
   </sheetData>
@@ -704,55 +947,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19303EC1-69ED-41B3-930A-C55563E552B0}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>3521</v>
+      </c>
+      <c r="D2">
+        <v>3521</v>
+      </c>
+      <c r="E2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>